--- a/biology/Botanique/Allium_roylei/Allium_roylei.xlsx
+++ b/biology/Botanique/Allium_roylei/Allium_roylei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium roylei est une espèce végétale à bulbe en forme d'œuf, géophyte, que l'on trouve dans les hauteurs de l'Himalaya du Pakistan et en Inde, ainsi qu'en Afghanistan. Son ombelle est hémisphérique, avec des fleurs rougeâtres[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium roylei est une espèce végétale à bulbe en forme d'œuf, géophyte, que l'on trouve dans les hauteurs de l'Himalaya du Pakistan et en Inde, ainsi qu'en Afghanistan. Son ombelle est hémisphérique, avec des fleurs rougeâtres.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">les bulbe sont ovoïdes, de 2 à 3 cm de long. Leur enveloppe externe membraneuse-scarieuse est brun rougeâtre. La hampe florale de 20 à 40 cm de hauteur  avec une base couverte de feuilles. Les feuilles 1-3,sont linéaires, larges de 1-2 mm, cannelées, non fistuleuses. L'ombelle hémisphérique, de 2 à 3 cm de diamètre. Les tépales sont ovales, de 6-8 mm de long, rougeâtres, aigus. Les sont filets plus longs que les tépales, internes avec 2 dents à la base de chacun. Le style est filiforme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">les bulbe sont ovoïdes, de 2 à 3 cm de long. Leur enveloppe externe membraneuse-scarieuse est brun rougeâtre. La hampe florale de 20 à 40 cm de hauteur  avec une base couverte de feuilles. Les feuilles 1-3,sont linéaires, larges de 1-2 mm, cannelées, non fistuleuses. L'ombelle hémisphérique, de 2 à 3 cm de diamètre. Les tépales sont ovales, de 6-8 mm de long, rougeâtres, aigus. Les sont filets plus longs que les tépales, internes avec 2 dents à la base de chacun. Le style est filiforme.
 </t>
         </is>
       </c>
